--- a/data/input/absenteeism_data_32.xlsx
+++ b/data/input/absenteeism_data_32.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>50183</v>
+        <v>75339</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ana Vitória Azevedo</t>
+          <t>Alice Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,51 +494,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>7111.08</v>
+        <v>7376.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79933</v>
+        <v>17318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Alice da Conceição</t>
+          <t>Ana Sophia Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>3631</v>
+        <v>6301.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>57422</v>
+        <v>847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dr. André Ferreira</t>
+          <t>Emilly da Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,26 +548,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>7957.54</v>
+        <v>5192.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56965</v>
+        <v>93699</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Miguel da Paz</t>
+          <t>Ana Lívia Jesus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,84 +577,84 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45091</v>
+        <v>45098</v>
       </c>
       <c r="G5" t="n">
-        <v>8633.549999999999</v>
+        <v>3487.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>43896</v>
+        <v>95910</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. João Felipe Peixoto</t>
+          <t>Maysa Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45082</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>5157.24</v>
+        <v>5476.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>92561</v>
+        <v>46758</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alana Cardoso</t>
+          <t>Kevin Melo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>7439.26</v>
+        <v>11749.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>71231</v>
+        <v>66758</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Marcela da Costa</t>
+          <t>Olivia Campos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,104 +664,104 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>9292.51</v>
+        <v>4914.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22904</v>
+        <v>10780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arthur Pires</t>
+          <t>Maria Fernanda Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45081</v>
+        <v>45093</v>
       </c>
       <c r="G9" t="n">
-        <v>3783.1</v>
+        <v>5619.91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7717</v>
+        <v>62317</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Stephany Barros</t>
+          <t>Rafael Alves</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>10602.61</v>
+        <v>9247.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12013</v>
+        <v>21185</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bruna Correia</t>
+          <t>Vicente da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>7753.07</v>
+        <v>12420.87</v>
       </c>
     </row>
   </sheetData>
